--- a/problems/demands/median.xlsx
+++ b/problems/demands/median.xlsx
@@ -120,7 +120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -194,7 +188,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -517,7 +511,7 @@
     <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -545,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -559,7 +553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -573,7 +567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -587,7 +581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -601,7 +595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -615,7 +609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -629,7 +623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -643,7 +637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -657,7 +651,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -671,7 +665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -685,7 +679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -699,7 +693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -713,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -727,7 +721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -741,7 +735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -755,7 +749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -769,7 +763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -783,7 +777,7 @@
         <v>219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -797,7 +791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -811,7 +805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -825,7 +819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -839,7 +833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -853,7 +847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -867,7 +861,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -881,7 +875,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -895,7 +889,7 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -909,12 +903,12 @@
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="4">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="C29" s="4">
         <v>466</v>
@@ -923,12 +917,12 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="4">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="C30" s="4">
         <v>247</v>

--- a/problems/demands/median.xlsx
+++ b/problems/demands/median.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>Centre</t>
+    <t>centre</t>
   </si>
   <si>
     <t>A</t>
@@ -120,7 +120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,7 +130,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,14 +191,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -505,10 +508,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -526,409 +529,409 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
+        <v>274</v>
+      </c>
+      <c r="C3" s="3">
+        <v>103</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>486</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>253</v>
       </c>
-      <c r="C3" s="4">
-        <v>96</v>
-      </c>
-      <c r="D3" s="4">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>961</v>
+      </c>
+      <c r="C6" s="3">
+        <v>566</v>
+      </c>
+      <c r="D6" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>350</v>
+      </c>
+      <c r="C7" s="3">
+        <v>183</v>
+      </c>
+      <c r="D7" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>391</v>
+      </c>
+      <c r="C8" s="3">
+        <v>130</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>672</v>
+      </c>
+      <c r="C9" s="3">
+        <v>462</v>
+      </c>
+      <c r="D9" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>532</v>
+      </c>
+      <c r="C10" s="3">
+        <v>455</v>
+      </c>
+      <c r="D10" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>593</v>
+      </c>
+      <c r="C11" s="3">
+        <v>213</v>
+      </c>
+      <c r="D11" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>551</v>
+      </c>
+      <c r="C12" s="3">
+        <v>239</v>
+      </c>
+      <c r="D12" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>712</v>
+      </c>
+      <c r="C13" s="3">
+        <v>226</v>
+      </c>
+      <c r="D13" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>98</v>
+      </c>
+      <c r="D14" s="3">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>61</v>
-      </c>
-      <c r="C4" s="4">
-        <v>72</v>
-      </c>
-      <c r="D4" s="4">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>269</v>
+      </c>
+      <c r="C15" s="3">
+        <v>190</v>
+      </c>
+      <c r="D15" s="3">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>467</v>
-      </c>
-      <c r="C5" s="4">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>165</v>
+      </c>
+      <c r="C16" s="3">
+        <v>145</v>
+      </c>
+      <c r="D16" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>213</v>
+      </c>
+      <c r="C17" s="3">
+        <v>109</v>
+      </c>
+      <c r="D17" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>989</v>
+      </c>
+      <c r="C18" s="3">
+        <v>598</v>
+      </c>
+      <c r="D18" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1827</v>
+      </c>
+      <c r="C19" s="3">
+        <v>892</v>
+      </c>
+      <c r="D19" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>251</v>
+      </c>
+      <c r="C20" s="3">
+        <v>160</v>
+      </c>
+      <c r="D20" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>616</v>
+      </c>
+      <c r="C21" s="3">
+        <v>228</v>
+      </c>
+      <c r="D21" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>242</v>
+      </c>
+      <c r="C22" s="3">
+        <v>301</v>
+      </c>
+      <c r="D22" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>199</v>
+      </c>
+      <c r="C23" s="3">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>263</v>
+      </c>
+      <c r="C24" s="3">
+        <v>213</v>
+      </c>
+      <c r="D24" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1226</v>
+      </c>
+      <c r="C25" s="3">
+        <v>536</v>
+      </c>
+      <c r="D25" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1344</v>
+      </c>
+      <c r="C26" s="3">
+        <v>673</v>
+      </c>
+      <c r="D26" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2385</v>
+      </c>
+      <c r="C27" s="3">
+        <v>989</v>
+      </c>
+      <c r="D27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2962</v>
+      </c>
+      <c r="C28" s="3">
+        <v>640</v>
+      </c>
+      <c r="D28" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>969</v>
-      </c>
-      <c r="C6" s="4">
-        <v>529</v>
-      </c>
-      <c r="D6" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>309</v>
-      </c>
-      <c r="C7" s="4">
-        <v>167</v>
-      </c>
-      <c r="D7" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>281</v>
-      </c>
-      <c r="C8" s="4">
-        <v>109</v>
-      </c>
-      <c r="D8" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
-        <v>636</v>
-      </c>
-      <c r="C9" s="4">
-        <v>478</v>
-      </c>
-      <c r="D9" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>519</v>
-      </c>
-      <c r="C10" s="4">
-        <v>434</v>
-      </c>
-      <c r="D10" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4">
-        <v>528</v>
-      </c>
-      <c r="C11" s="4">
-        <v>220</v>
-      </c>
-      <c r="D11" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4">
-        <v>520</v>
-      </c>
-      <c r="C12" s="4">
-        <v>212</v>
-      </c>
-      <c r="D12" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4">
-        <v>669</v>
-      </c>
-      <c r="C13" s="4">
-        <v>211</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C29" s="3">
+        <v>462</v>
+      </c>
+      <c r="D29" s="3">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
-        <v>96</v>
-      </c>
-      <c r="D14" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
-        <v>244</v>
-      </c>
-      <c r="C15" s="4">
-        <v>166</v>
-      </c>
-      <c r="D15" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="C30" s="3">
+        <v>236</v>
+      </c>
+      <c r="D30" s="3">
         <v>68</v>
-      </c>
-      <c r="C16" s="4">
-        <v>108</v>
-      </c>
-      <c r="D16" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4">
-        <v>157</v>
-      </c>
-      <c r="C17" s="4">
-        <v>101</v>
-      </c>
-      <c r="D17" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4">
-        <v>976</v>
-      </c>
-      <c r="C18" s="4">
-        <v>590</v>
-      </c>
-      <c r="D18" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1722</v>
-      </c>
-      <c r="C19" s="4">
-        <v>882</v>
-      </c>
-      <c r="D19" s="4">
-        <v>219</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4">
-        <v>225</v>
-      </c>
-      <c r="C20" s="4">
-        <v>140</v>
-      </c>
-      <c r="D20" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4">
-        <v>368</v>
-      </c>
-      <c r="C21" s="4">
-        <v>203</v>
-      </c>
-      <c r="D21" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4">
-        <v>241</v>
-      </c>
-      <c r="C22" s="4">
-        <v>279</v>
-      </c>
-      <c r="D22" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4">
-        <v>190</v>
-      </c>
-      <c r="C23" s="4">
-        <v>87</v>
-      </c>
-      <c r="D23" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="4">
-        <v>264</v>
-      </c>
-      <c r="C24" s="4">
-        <v>201</v>
-      </c>
-      <c r="D24" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="4">
-        <v>910</v>
-      </c>
-      <c r="C25" s="4">
-        <v>495</v>
-      </c>
-      <c r="D25" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="4">
-        <v>881</v>
-      </c>
-      <c r="C26" s="4">
-        <v>656</v>
-      </c>
-      <c r="D26" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2589</v>
-      </c>
-      <c r="C27" s="4">
-        <v>956</v>
-      </c>
-      <c r="D27" s="4">
-        <v>181</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2872</v>
-      </c>
-      <c r="C28" s="4">
-        <v>588</v>
-      </c>
-      <c r="D28" s="4">
-        <v>177</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>466</v>
-      </c>
-      <c r="D29" s="4">
-        <v>62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>247</v>
-      </c>
-      <c r="D30" s="4">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
